--- a/documents/Zeitplanung.xlsx
+++ b/documents/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lillykoller/Library/Mobile Documents/com~apple~CloudDocs/Betrieb/1_Semester/1_Blj/1_Projekte/9_EigenesProjekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8B750A-4481-BB4E-A911-B7B91487DB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6FFB70-DDFE-104B-9CB5-C9E91D51E40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20020" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1236,7 +1236,7 @@
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1611,6 +1611,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1642,15 +1654,11 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1834,7 +1842,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2341,8 +2349,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="139" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="200" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2661,88 +2669,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="108"/>
+      <c r="D7" s="111"/>
       <c r="E7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="109" t="s">
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="109" t="s">
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="110"/>
-      <c r="AB7" s="111" t="s">
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="113"/>
+      <c r="AB7" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="AC7" s="109"/>
-      <c r="AD7" s="109"/>
-      <c r="AE7" s="109"/>
-      <c r="AF7" s="109"/>
-      <c r="AG7" s="109"/>
-      <c r="AH7" s="110"/>
-      <c r="AI7" s="109" t="s">
+      <c r="AC7" s="112"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="112"/>
+      <c r="AF7" s="112"/>
+      <c r="AG7" s="112"/>
+      <c r="AH7" s="113"/>
+      <c r="AI7" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="AJ7" s="109"/>
-      <c r="AK7" s="109"/>
-      <c r="AL7" s="109"/>
-      <c r="AM7" s="109"/>
-      <c r="AN7" s="109"/>
-      <c r="AO7" s="110"/>
-      <c r="AP7" s="111" t="s">
+      <c r="AJ7" s="112"/>
+      <c r="AK7" s="112"/>
+      <c r="AL7" s="112"/>
+      <c r="AM7" s="112"/>
+      <c r="AN7" s="112"/>
+      <c r="AO7" s="113"/>
+      <c r="AP7" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="AQ7" s="109"/>
-      <c r="AR7" s="109"/>
-      <c r="AS7" s="109"/>
-      <c r="AT7" s="109"/>
-      <c r="AU7" s="109"/>
-      <c r="AV7" s="110"/>
-      <c r="AW7" s="109" t="s">
+      <c r="AQ7" s="112"/>
+      <c r="AR7" s="112"/>
+      <c r="AS7" s="112"/>
+      <c r="AT7" s="112"/>
+      <c r="AU7" s="112"/>
+      <c r="AV7" s="113"/>
+      <c r="AW7" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="AX7" s="109"/>
-      <c r="AY7" s="109"/>
-      <c r="AZ7" s="109"/>
-      <c r="BA7" s="109"/>
-      <c r="BB7" s="109"/>
-      <c r="BC7" s="110"/>
-      <c r="BD7" s="111" t="s">
+      <c r="AX7" s="112"/>
+      <c r="AY7" s="112"/>
+      <c r="AZ7" s="112"/>
+      <c r="BA7" s="112"/>
+      <c r="BB7" s="112"/>
+      <c r="BC7" s="113"/>
+      <c r="BD7" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="BE7" s="109"/>
-      <c r="BF7" s="109"/>
-      <c r="BG7" s="109"/>
-      <c r="BH7" s="109"/>
-      <c r="BI7" s="109"/>
-      <c r="BJ7" s="112"/>
+      <c r="BE7" s="112"/>
+      <c r="BF7" s="112"/>
+      <c r="BG7" s="112"/>
+      <c r="BH7" s="112"/>
+      <c r="BI7" s="112"/>
+      <c r="BJ7" s="115"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -3111,7 +3119,7 @@
       <c r="H11" s="59"/>
       <c r="I11" s="60"/>
       <c r="J11" s="60"/>
-      <c r="K11" s="119" t="s">
+      <c r="K11" s="110" t="s">
         <v>51</v>
       </c>
       <c r="L11" s="61"/>
@@ -3121,7 +3129,7 @@
       <c r="N11" s="58"/>
       <c r="O11" s="59"/>
       <c r="P11" s="59"/>
-      <c r="Q11" s="119" t="s">
+      <c r="Q11" s="110" t="s">
         <v>51</v>
       </c>
       <c r="R11" s="55"/>
@@ -3622,7 +3630,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3711,7 +3719,7 @@
       <c r="N19" s="52"/>
       <c r="O19" s="53"/>
       <c r="P19" s="88"/>
-      <c r="Q19" s="117">
+      <c r="Q19" s="108">
         <v>1</v>
       </c>
       <c r="R19" s="55"/>
@@ -3787,7 +3795,7 @@
       <c r="N20" s="58"/>
       <c r="O20" s="59"/>
       <c r="P20" s="88"/>
-      <c r="Q20" s="117">
+      <c r="Q20" s="108">
         <v>2</v>
       </c>
       <c r="R20" s="55"/>
@@ -3847,8 +3855,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="49">
         <v>1</v>
@@ -3865,7 +3872,9 @@
       <c r="O21" s="59"/>
       <c r="P21" s="88"/>
       <c r="Q21" s="54"/>
-      <c r="R21" s="104"/>
+      <c r="R21" s="120">
+        <v>1</v>
+      </c>
       <c r="S21" s="56"/>
       <c r="T21" s="57"/>
       <c r="U21" s="58"/>
@@ -3997,8 +4006,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" s="49">
         <v>1</v>
@@ -4015,7 +4023,9 @@
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
       <c r="Q23" s="60"/>
-      <c r="R23" s="104"/>
+      <c r="R23" s="120">
+        <v>3</v>
+      </c>
       <c r="S23" s="56"/>
       <c r="T23" s="57"/>
       <c r="U23" s="58"/>
@@ -4071,8 +4081,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="49">
         <v>1</v>
@@ -4089,7 +4098,9 @@
       <c r="O24" s="59"/>
       <c r="P24" s="88"/>
       <c r="Q24" s="54"/>
-      <c r="R24" s="55"/>
+      <c r="R24" s="121">
+        <v>2</v>
+      </c>
       <c r="S24" s="56"/>
       <c r="T24" s="57"/>
       <c r="U24" s="58"/>
@@ -4146,8 +4157,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" s="49">
         <v>1</v>
@@ -4164,7 +4174,9 @@
       <c r="O25" s="59"/>
       <c r="P25" s="88"/>
       <c r="Q25" s="54"/>
-      <c r="R25" s="55"/>
+      <c r="R25" s="55">
+        <v>2</v>
+      </c>
       <c r="S25" s="56"/>
       <c r="T25" s="57"/>
       <c r="U25" s="58"/>
@@ -4237,7 +4249,7 @@
       <c r="N26" s="58"/>
       <c r="O26" s="59"/>
       <c r="P26" s="88"/>
-      <c r="Q26" s="117" t="s">
+      <c r="Q26" s="108" t="s">
         <v>64</v>
       </c>
       <c r="R26" s="55"/>
@@ -4612,7 +4624,7 @@
       <c r="N31" s="68"/>
       <c r="O31" s="69"/>
       <c r="P31" s="88"/>
-      <c r="Q31" s="118" t="s">
+      <c r="Q31" s="109" t="s">
         <v>51</v>
       </c>
       <c r="R31" s="55"/>
@@ -4688,7 +4700,7 @@
       <c r="N32" s="68"/>
       <c r="O32" s="69"/>
       <c r="P32" s="88"/>
-      <c r="Q32" s="117">
+      <c r="Q32" s="108">
         <v>3</v>
       </c>
       <c r="R32" s="104"/>
@@ -5609,7 +5621,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5659,7 +5671,7 @@
       </c>
       <c r="R45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S45" s="38">
         <f t="shared" si="4"/>
@@ -5884,10 +5896,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="119"/>
       <c r="C2" s="76" t="s">
         <v>13</v>
       </c>
@@ -5896,11 +5908,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="113" t="str">
+      <c r="A3" s="116" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="114"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="77">
         <f>Zeitplanung!C9</f>
         <v>7</v>
@@ -5913,11 +5925,11 @@
       <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="str">
+      <c r="A4" s="116" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="77">
         <f>Zeitplanung!C14</f>
         <v>1</v>
@@ -5930,28 +5942,28 @@
       <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="str">
+      <c r="A5" s="116" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="77">
         <f>Zeitplanung!C18</f>
         <v>41</v>
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113" t="str">
+      <c r="A6" s="116" t="str">
         <f>Zeitplanung!B34</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="114"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="77">
         <f>Zeitplanung!C34</f>
         <v>0</v>
@@ -5963,11 +5975,11 @@
       <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113" t="str">
+      <c r="A7" s="116" t="str">
         <f>Zeitplanung!B38</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="114"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="77">
         <f>Zeitplanung!C38</f>
         <v>10</v>
@@ -5979,11 +5991,11 @@
       <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113" t="str">
+      <c r="A8" s="116" t="str">
         <f>Zeitplanung!B41</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="114"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="77">
         <f>Zeitplanung!C41</f>
         <v>4</v>

--- a/documents/Zeitplanung.xlsx
+++ b/documents/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lillykoller/Library/Mobile Documents/com~apple~CloudDocs/Betrieb/1_Semester/1_Blj/1_Projekte/9_EigenesProjekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FC33AD8-6C85-B140-9023-02F311468750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130C5168-D782-0D44-B852-3951A06D6B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20020" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1853,7 +1853,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2360,8 +2360,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="200" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="185" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -4321,7 +4321,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="80">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E27" s="49">
         <v>1</v>
@@ -4349,7 +4349,9 @@
       <c r="X27" s="108">
         <v>8</v>
       </c>
-      <c r="Y27" s="55"/>
+      <c r="Y27" s="55">
+        <v>8</v>
+      </c>
       <c r="Z27" s="56"/>
       <c r="AA27" s="57"/>
       <c r="AB27" s="98"/>
@@ -5637,7 +5639,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5715,7 +5717,7 @@
       </c>
       <c r="Y45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z45" s="38">
         <f t="shared" si="4"/>
@@ -5969,7 +5971,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>

--- a/documents/Zeitplanung.xlsx
+++ b/documents/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lillykoller/Library/Mobile Documents/com~apple~CloudDocs/Betrieb/1_Semester/1_Blj/1_Projekte/9_EigenesProjekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130C5168-D782-0D44-B852-3951A06D6B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B79E51F-2572-DA4E-850C-832EC7B126F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20020" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1779,7 +1779,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2361,7 +2361,7 @@
   <dimension ref="A1:BJ45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="185" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y27" sqref="Y27"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="C18" s="40">
         <f>SUM(C19:C33)</f>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
@@ -4473,7 +4473,7 @@
         <v>60</v>
       </c>
       <c r="C29" s="48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D29" s="80">
         <f t="shared" si="1"/>
@@ -4548,7 +4548,7 @@
         <v>61</v>
       </c>
       <c r="C30" s="48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D30" s="80">
         <f t="shared" si="1"/>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="C45" s="36">
         <f>C41+C38+C34+C18+C14+C9</f>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
@@ -5967,7 +5967,7 @@
       <c r="B5" s="120"/>
       <c r="C5" s="77">
         <f>Zeitplanung!C18</f>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>

--- a/documents/Zeitplanung.xlsx
+++ b/documents/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lillykoller/Library/Mobile Documents/com~apple~CloudDocs/Betrieb/1_Semester/1_Blj/1_Projekte/9_EigenesProjekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B79E51F-2572-DA4E-850C-832EC7B126F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38F57F8-4BA6-A94D-A774-C00B0B75A5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20020" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="10580" windowWidth="14400" windowHeight="9660" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1614,10 +1614,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1672,6 +1668,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1853,7 +1853,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2360,8 +2360,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="185" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="185" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2680,88 +2680,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="114"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="115" t="s">
+      <c r="G7" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="115" t="s">
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="116"/>
-      <c r="U7" s="115" t="s">
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-      <c r="Y7" s="115"/>
-      <c r="Z7" s="115"/>
-      <c r="AA7" s="116"/>
-      <c r="AB7" s="117" t="s">
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="AC7" s="115"/>
-      <c r="AD7" s="115"/>
-      <c r="AE7" s="115"/>
-      <c r="AF7" s="115"/>
-      <c r="AG7" s="115"/>
-      <c r="AH7" s="116"/>
-      <c r="AI7" s="115" t="s">
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="114"/>
+      <c r="AE7" s="114"/>
+      <c r="AF7" s="114"/>
+      <c r="AG7" s="114"/>
+      <c r="AH7" s="115"/>
+      <c r="AI7" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="AJ7" s="115"/>
-      <c r="AK7" s="115"/>
-      <c r="AL7" s="115"/>
-      <c r="AM7" s="115"/>
-      <c r="AN7" s="115"/>
-      <c r="AO7" s="116"/>
-      <c r="AP7" s="117" t="s">
+      <c r="AJ7" s="114"/>
+      <c r="AK7" s="114"/>
+      <c r="AL7" s="114"/>
+      <c r="AM7" s="114"/>
+      <c r="AN7" s="114"/>
+      <c r="AO7" s="115"/>
+      <c r="AP7" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="AQ7" s="115"/>
-      <c r="AR7" s="115"/>
-      <c r="AS7" s="115"/>
-      <c r="AT7" s="115"/>
-      <c r="AU7" s="115"/>
-      <c r="AV7" s="116"/>
-      <c r="AW7" s="115" t="s">
+      <c r="AQ7" s="114"/>
+      <c r="AR7" s="114"/>
+      <c r="AS7" s="114"/>
+      <c r="AT7" s="114"/>
+      <c r="AU7" s="114"/>
+      <c r="AV7" s="115"/>
+      <c r="AW7" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="AX7" s="115"/>
-      <c r="AY7" s="115"/>
-      <c r="AZ7" s="115"/>
-      <c r="BA7" s="115"/>
-      <c r="BB7" s="115"/>
-      <c r="BC7" s="116"/>
-      <c r="BD7" s="117" t="s">
+      <c r="AX7" s="114"/>
+      <c r="AY7" s="114"/>
+      <c r="AZ7" s="114"/>
+      <c r="BA7" s="114"/>
+      <c r="BB7" s="114"/>
+      <c r="BC7" s="115"/>
+      <c r="BD7" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="BE7" s="115"/>
-      <c r="BF7" s="115"/>
-      <c r="BG7" s="115"/>
-      <c r="BH7" s="115"/>
-      <c r="BI7" s="115"/>
-      <c r="BJ7" s="118"/>
+      <c r="BE7" s="114"/>
+      <c r="BF7" s="114"/>
+      <c r="BG7" s="114"/>
+      <c r="BH7" s="114"/>
+      <c r="BI7" s="114"/>
+      <c r="BJ7" s="117"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -3130,7 +3130,7 @@
       <c r="H11" s="59"/>
       <c r="I11" s="60"/>
       <c r="J11" s="60"/>
-      <c r="K11" s="110" t="s">
+      <c r="K11" s="109" t="s">
         <v>51</v>
       </c>
       <c r="L11" s="61"/>
@@ -3140,7 +3140,7 @@
       <c r="N11" s="58"/>
       <c r="O11" s="59"/>
       <c r="P11" s="59"/>
-      <c r="Q11" s="110" t="s">
+      <c r="Q11" s="109" t="s">
         <v>51</v>
       </c>
       <c r="R11" s="55"/>
@@ -3437,7 +3437,9 @@
       <c r="H15" s="53"/>
       <c r="I15" s="54"/>
       <c r="J15" s="54"/>
-      <c r="K15" s="105"/>
+      <c r="K15" s="107">
+        <v>1</v>
+      </c>
       <c r="L15" s="56"/>
       <c r="M15" s="57"/>
       <c r="N15" s="52"/>
@@ -3641,7 +3643,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3730,7 +3732,7 @@
       <c r="N19" s="52"/>
       <c r="O19" s="53"/>
       <c r="P19" s="88"/>
-      <c r="Q19" s="108">
+      <c r="Q19" s="107">
         <v>1</v>
       </c>
       <c r="R19" s="55"/>
@@ -3806,7 +3808,7 @@
       <c r="N20" s="58"/>
       <c r="O20" s="59"/>
       <c r="P20" s="88"/>
-      <c r="Q20" s="108">
+      <c r="Q20" s="107">
         <v>2</v>
       </c>
       <c r="R20" s="55"/>
@@ -3883,7 +3885,7 @@
       <c r="O21" s="59"/>
       <c r="P21" s="88"/>
       <c r="Q21" s="54"/>
-      <c r="R21" s="111">
+      <c r="R21" s="110">
         <v>1</v>
       </c>
       <c r="S21" s="56"/>
@@ -3964,7 +3966,7 @@
       <c r="T22" s="57"/>
       <c r="U22" s="58"/>
       <c r="V22" s="59"/>
-      <c r="W22" s="108">
+      <c r="W22" s="107">
         <v>3</v>
       </c>
       <c r="X22" s="54"/>
@@ -4035,7 +4037,7 @@
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
       <c r="Q23" s="60"/>
-      <c r="R23" s="111">
+      <c r="R23" s="110">
         <v>3</v>
       </c>
       <c r="S23" s="56"/>
@@ -4110,7 +4112,7 @@
       <c r="O24" s="59"/>
       <c r="P24" s="88"/>
       <c r="Q24" s="54"/>
-      <c r="R24" s="112">
+      <c r="R24" s="111">
         <v>2</v>
       </c>
       <c r="S24" s="56"/>
@@ -4261,7 +4263,7 @@
       <c r="N26" s="58"/>
       <c r="O26" s="59"/>
       <c r="P26" s="88"/>
-      <c r="Q26" s="108" t="s">
+      <c r="Q26" s="107" t="s">
         <v>64</v>
       </c>
       <c r="R26" s="55"/>
@@ -4343,10 +4345,10 @@
       <c r="T27" s="57"/>
       <c r="U27" s="58"/>
       <c r="V27" s="59"/>
-      <c r="W27" s="113">
+      <c r="W27" s="112">
         <v>5</v>
       </c>
-      <c r="X27" s="108">
+      <c r="X27" s="107">
         <v>8</v>
       </c>
       <c r="Y27" s="55">
@@ -4402,7 +4404,7 @@
       </c>
       <c r="D28" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="49">
         <v>2</v>
@@ -4426,10 +4428,12 @@
       <c r="V28" s="59"/>
       <c r="W28" s="54"/>
       <c r="X28" s="106"/>
-      <c r="Y28" s="104"/>
+      <c r="Y28" s="110"/>
       <c r="Z28" s="56"/>
       <c r="AA28" s="57"/>
-      <c r="AB28" s="98"/>
+      <c r="AB28" s="98">
+        <v>1</v>
+      </c>
       <c r="AC28" s="60"/>
       <c r="AD28" s="54"/>
       <c r="AE28" s="88"/>
@@ -4477,7 +4481,7 @@
       </c>
       <c r="D29" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" s="49">
         <v>3</v>
@@ -4504,7 +4508,9 @@
       <c r="Y29" s="55"/>
       <c r="Z29" s="56"/>
       <c r="AA29" s="57"/>
-      <c r="AB29" s="107"/>
+      <c r="AB29" s="122">
+        <v>3</v>
+      </c>
       <c r="AC29" s="102"/>
       <c r="AD29" s="54"/>
       <c r="AE29" s="88"/>
@@ -4552,7 +4558,7 @@
       </c>
       <c r="D30" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E30" s="49">
         <v>3</v>
@@ -4579,7 +4585,9 @@
       <c r="Y30" s="55"/>
       <c r="Z30" s="56"/>
       <c r="AA30" s="57"/>
-      <c r="AB30" s="101"/>
+      <c r="AB30" s="101">
+        <v>4</v>
+      </c>
       <c r="AC30" s="102"/>
       <c r="AD30" s="105"/>
       <c r="AE30" s="88"/>
@@ -4642,7 +4650,7 @@
       <c r="N31" s="68"/>
       <c r="O31" s="69"/>
       <c r="P31" s="88"/>
-      <c r="Q31" s="109" t="s">
+      <c r="Q31" s="108" t="s">
         <v>51</v>
       </c>
       <c r="R31" s="55"/>
@@ -4718,7 +4726,7 @@
       <c r="N32" s="68"/>
       <c r="O32" s="69"/>
       <c r="P32" s="88"/>
-      <c r="Q32" s="108">
+      <c r="Q32" s="107">
         <v>3</v>
       </c>
       <c r="R32" s="104"/>
@@ -5639,7 +5647,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5661,7 +5669,7 @@
       </c>
       <c r="K45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="38">
         <f t="shared" si="4"/>
@@ -5729,7 +5737,7 @@
       </c>
       <c r="AB45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC45" s="38">
         <f t="shared" si="4"/>
@@ -5914,10 +5922,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="122"/>
+      <c r="B2" s="121"/>
       <c r="C2" s="76" t="s">
         <v>13</v>
       </c>
@@ -5926,11 +5934,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="str">
+      <c r="A3" s="118" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="120"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="77">
         <f>Zeitplanung!C9</f>
         <v>7</v>
@@ -5943,11 +5951,11 @@
       <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="str">
+      <c r="A4" s="118" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="120"/>
+      <c r="B4" s="119"/>
       <c r="C4" s="77">
         <f>Zeitplanung!C14</f>
         <v>1</v>
@@ -5960,28 +5968,28 @@
       <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="str">
+      <c r="A5" s="118" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="120"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="77">
         <f>Zeitplanung!C18</f>
         <v>49</v>
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="str">
+      <c r="A6" s="118" t="str">
         <f>Zeitplanung!B34</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="120"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="77">
         <f>Zeitplanung!C34</f>
         <v>0</v>
@@ -5993,11 +6001,11 @@
       <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="str">
+      <c r="A7" s="118" t="str">
         <f>Zeitplanung!B38</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="120"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="77">
         <f>Zeitplanung!C38</f>
         <v>10</v>
@@ -6009,11 +6017,11 @@
       <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="119" t="str">
+      <c r="A8" s="118" t="str">
         <f>Zeitplanung!B41</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="120"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="77">
         <f>Zeitplanung!C41</f>
         <v>4</v>

--- a/documents/Zeitplanung.xlsx
+++ b/documents/Zeitplanung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lillykoller/Library/Mobile Documents/com~apple~CloudDocs/Betrieb/1_Semester/1_Blj/1_Projekte/9_EigenesProjekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38F57F8-4BA6-A94D-A774-C00B0B75A5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F407E8-5158-114C-9007-72FC5BD8932B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="10580" windowWidth="14400" windowHeight="9660" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -508,6 +508,12 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -1243,7 +1249,7 @@
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1598,10 +1604,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1635,6 +1637,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1669,7 +1675,11 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="1" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1853,13 +1863,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2360,8 +2370,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="185" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC27" sqref="AC27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AF26" sqref="AF26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3130,7 +3140,7 @@
       <c r="H11" s="59"/>
       <c r="I11" s="60"/>
       <c r="J11" s="60"/>
-      <c r="K11" s="109" t="s">
+      <c r="K11" s="108" t="s">
         <v>51</v>
       </c>
       <c r="L11" s="61"/>
@@ -3140,7 +3150,7 @@
       <c r="N11" s="58"/>
       <c r="O11" s="59"/>
       <c r="P11" s="59"/>
-      <c r="Q11" s="109" t="s">
+      <c r="Q11" s="108" t="s">
         <v>51</v>
       </c>
       <c r="R11" s="55"/>
@@ -3212,7 +3222,7 @@
       <c r="H12" s="59"/>
       <c r="I12" s="60"/>
       <c r="J12" s="60"/>
-      <c r="K12" s="104"/>
+      <c r="K12" s="103"/>
       <c r="L12" s="56"/>
       <c r="M12" s="57"/>
       <c r="N12" s="58"/>
@@ -3331,7 +3341,7 @@
       <c r="AX13" s="59"/>
       <c r="AY13" s="88"/>
       <c r="AZ13" s="88"/>
-      <c r="BA13" s="105"/>
+      <c r="BA13" s="104"/>
       <c r="BB13" s="64"/>
       <c r="BC13" s="65"/>
       <c r="BD13" s="58"/>
@@ -3437,7 +3447,7 @@
       <c r="H15" s="53"/>
       <c r="I15" s="54"/>
       <c r="J15" s="54"/>
-      <c r="K15" s="107">
+      <c r="K15" s="106">
         <v>1</v>
       </c>
       <c r="L15" s="56"/>
@@ -3643,7 +3653,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3732,7 +3742,7 @@
       <c r="N19" s="52"/>
       <c r="O19" s="53"/>
       <c r="P19" s="88"/>
-      <c r="Q19" s="107">
+      <c r="Q19" s="106">
         <v>1</v>
       </c>
       <c r="R19" s="55"/>
@@ -3808,7 +3818,7 @@
       <c r="N20" s="58"/>
       <c r="O20" s="59"/>
       <c r="P20" s="88"/>
-      <c r="Q20" s="107">
+      <c r="Q20" s="106">
         <v>2</v>
       </c>
       <c r="R20" s="55"/>
@@ -3885,7 +3895,7 @@
       <c r="O21" s="59"/>
       <c r="P21" s="88"/>
       <c r="Q21" s="54"/>
-      <c r="R21" s="110">
+      <c r="R21" s="109">
         <v>1</v>
       </c>
       <c r="S21" s="56"/>
@@ -3966,7 +3976,7 @@
       <c r="T22" s="57"/>
       <c r="U22" s="58"/>
       <c r="V22" s="59"/>
-      <c r="W22" s="107">
+      <c r="W22" s="106">
         <v>3</v>
       </c>
       <c r="X22" s="54"/>
@@ -3974,7 +3984,9 @@
       <c r="Z22" s="56"/>
       <c r="AA22" s="57"/>
       <c r="AB22" s="98"/>
-      <c r="AC22" s="103"/>
+      <c r="AC22" s="108">
+        <v>1</v>
+      </c>
       <c r="AD22" s="54"/>
       <c r="AE22" s="88"/>
       <c r="AF22" s="89"/>
@@ -4037,7 +4049,7 @@
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
       <c r="Q23" s="60"/>
-      <c r="R23" s="110">
+      <c r="R23" s="109">
         <v>3</v>
       </c>
       <c r="S23" s="56"/>
@@ -4112,14 +4124,14 @@
       <c r="O24" s="59"/>
       <c r="P24" s="88"/>
       <c r="Q24" s="54"/>
-      <c r="R24" s="111">
+      <c r="R24" s="110">
         <v>2</v>
       </c>
       <c r="S24" s="56"/>
       <c r="T24" s="57"/>
       <c r="U24" s="58"/>
       <c r="V24" s="59"/>
-      <c r="W24" s="105"/>
+      <c r="W24" s="104"/>
       <c r="X24" s="54"/>
       <c r="Y24" s="55"/>
       <c r="Z24" s="56"/>
@@ -4196,7 +4208,7 @@
       <c r="U25" s="58"/>
       <c r="V25" s="59"/>
       <c r="W25" s="54"/>
-      <c r="X25" s="105"/>
+      <c r="X25" s="104"/>
       <c r="Y25" s="55"/>
       <c r="Z25" s="56"/>
       <c r="AA25" s="57"/>
@@ -4263,7 +4275,7 @@
       <c r="N26" s="58"/>
       <c r="O26" s="59"/>
       <c r="P26" s="88"/>
-      <c r="Q26" s="107" t="s">
+      <c r="Q26" s="106" t="s">
         <v>64</v>
       </c>
       <c r="R26" s="55"/>
@@ -4345,10 +4357,10 @@
       <c r="T27" s="57"/>
       <c r="U27" s="58"/>
       <c r="V27" s="59"/>
-      <c r="W27" s="112">
+      <c r="W27" s="111">
         <v>5</v>
       </c>
-      <c r="X27" s="107">
+      <c r="X27" s="106">
         <v>8</v>
       </c>
       <c r="Y27" s="55">
@@ -4427,8 +4439,8 @@
       <c r="U28" s="58"/>
       <c r="V28" s="59"/>
       <c r="W28" s="54"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="110"/>
+      <c r="X28" s="105"/>
+      <c r="Y28" s="109"/>
       <c r="Z28" s="56"/>
       <c r="AA28" s="57"/>
       <c r="AB28" s="98">
@@ -4508,7 +4520,7 @@
       <c r="Y29" s="55"/>
       <c r="Z29" s="56"/>
       <c r="AA29" s="57"/>
-      <c r="AB29" s="122">
+      <c r="AB29" s="112">
         <v>3</v>
       </c>
       <c r="AC29" s="102"/>
@@ -4558,7 +4570,7 @@
       </c>
       <c r="D30" s="80">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E30" s="49">
         <v>3</v>
@@ -4589,7 +4601,9 @@
         <v>4</v>
       </c>
       <c r="AC30" s="102"/>
-      <c r="AD30" s="105"/>
+      <c r="AD30" s="106">
+        <v>3</v>
+      </c>
       <c r="AE30" s="88"/>
       <c r="AF30" s="89"/>
       <c r="AG30" s="56"/>
@@ -4650,7 +4664,7 @@
       <c r="N31" s="68"/>
       <c r="O31" s="69"/>
       <c r="P31" s="88"/>
-      <c r="Q31" s="108" t="s">
+      <c r="Q31" s="107" t="s">
         <v>51</v>
       </c>
       <c r="R31" s="55"/>
@@ -4660,7 +4674,7 @@
       <c r="V31" s="69"/>
       <c r="W31" s="54"/>
       <c r="X31" s="54"/>
-      <c r="Y31" s="104"/>
+      <c r="Y31" s="103"/>
       <c r="Z31" s="56"/>
       <c r="AA31" s="57"/>
       <c r="AB31" s="101"/>
@@ -4726,10 +4740,10 @@
       <c r="N32" s="68"/>
       <c r="O32" s="69"/>
       <c r="P32" s="88"/>
-      <c r="Q32" s="107">
+      <c r="Q32" s="106">
         <v>3</v>
       </c>
-      <c r="R32" s="104"/>
+      <c r="R32" s="103"/>
       <c r="S32" s="56"/>
       <c r="T32" s="57"/>
       <c r="U32" s="68"/>
@@ -5144,7 +5158,7 @@
       </c>
       <c r="D38" s="41">
         <f>SUM(D39:D40)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="30"/>
@@ -5217,7 +5231,7 @@
       </c>
       <c r="D39" s="80">
         <f>SUM(G39:BJ39)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E39" s="49"/>
       <c r="F39" s="50"/>
@@ -5243,9 +5257,13 @@
       <c r="Z39" s="56"/>
       <c r="AA39" s="57"/>
       <c r="AB39" s="96"/>
-      <c r="AC39" s="97"/>
-      <c r="AD39" s="54"/>
-      <c r="AE39" s="88"/>
+      <c r="AC39" s="123">
+        <v>7</v>
+      </c>
+      <c r="AD39" s="106">
+        <v>5</v>
+      </c>
+      <c r="AE39" s="122"/>
       <c r="AF39" s="89"/>
       <c r="AG39" s="56"/>
       <c r="AH39" s="57"/>
@@ -5483,7 +5501,7 @@
       <c r="AX42" s="53"/>
       <c r="AY42" s="88"/>
       <c r="AZ42" s="88"/>
-      <c r="BA42" s="104"/>
+      <c r="BA42" s="103"/>
       <c r="BB42" s="56"/>
       <c r="BC42" s="57"/>
       <c r="BD42" s="52"/>
@@ -5556,7 +5574,7 @@
       <c r="AX43" s="59"/>
       <c r="AY43" s="88"/>
       <c r="AZ43" s="88"/>
-      <c r="BA43" s="104"/>
+      <c r="BA43" s="103"/>
       <c r="BB43" s="56"/>
       <c r="BC43" s="57"/>
       <c r="BD43" s="58"/>
@@ -5647,7 +5665,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5741,11 +5759,11 @@
       </c>
       <c r="AC45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE45" s="38">
         <f t="shared" si="4"/>
@@ -5979,7 +5997,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
@@ -6012,7 +6030,7 @@
       </c>
       <c r="D7" s="77">
         <f>Zeitplanung!D38</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F7" s="78"/>
     </row>

--- a/documents/Zeitplanung.xlsx
+++ b/documents/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lillykoller/Library/Mobile Documents/com~apple~CloudDocs/Betrieb/1_Semester/1_Blj/1_Projekte/9_EigenesProjekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F407E8-5158-114C-9007-72FC5BD8932B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401D8DC9-6481-1D4F-B9F3-3DCA5A5B2686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20160" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1249,7 +1249,7 @@
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1644,6 +1644,26 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="1" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1674,14 +1694,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="1" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1857,13 +1869,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1872,7 +1884,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2370,8 +2382,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF26" sqref="AF26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AA47" sqref="AA47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2690,88 +2702,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="113" t="s">
+      <c r="C7" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="113"/>
+      <c r="D7" s="118"/>
       <c r="E7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="114" t="s">
+      <c r="G7" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="114" t="s">
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="114" t="s">
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="120"/>
+      <c r="U7" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="114"/>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="116" t="s">
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="120"/>
+      <c r="AB7" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="114"/>
-      <c r="AE7" s="114"/>
-      <c r="AF7" s="114"/>
-      <c r="AG7" s="114"/>
-      <c r="AH7" s="115"/>
-      <c r="AI7" s="114" t="s">
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="120"/>
+      <c r="AI7" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="AJ7" s="114"/>
-      <c r="AK7" s="114"/>
-      <c r="AL7" s="114"/>
-      <c r="AM7" s="114"/>
-      <c r="AN7" s="114"/>
-      <c r="AO7" s="115"/>
-      <c r="AP7" s="116" t="s">
+      <c r="AJ7" s="119"/>
+      <c r="AK7" s="119"/>
+      <c r="AL7" s="119"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="119"/>
+      <c r="AO7" s="120"/>
+      <c r="AP7" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="AQ7" s="114"/>
-      <c r="AR7" s="114"/>
-      <c r="AS7" s="114"/>
-      <c r="AT7" s="114"/>
-      <c r="AU7" s="114"/>
-      <c r="AV7" s="115"/>
-      <c r="AW7" s="114" t="s">
+      <c r="AQ7" s="119"/>
+      <c r="AR7" s="119"/>
+      <c r="AS7" s="119"/>
+      <c r="AT7" s="119"/>
+      <c r="AU7" s="119"/>
+      <c r="AV7" s="120"/>
+      <c r="AW7" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="AX7" s="114"/>
-      <c r="AY7" s="114"/>
-      <c r="AZ7" s="114"/>
-      <c r="BA7" s="114"/>
-      <c r="BB7" s="114"/>
-      <c r="BC7" s="115"/>
-      <c r="BD7" s="116" t="s">
+      <c r="AX7" s="119"/>
+      <c r="AY7" s="119"/>
+      <c r="AZ7" s="119"/>
+      <c r="BA7" s="119"/>
+      <c r="BB7" s="119"/>
+      <c r="BC7" s="120"/>
+      <c r="BD7" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="BE7" s="114"/>
-      <c r="BF7" s="114"/>
-      <c r="BG7" s="114"/>
-      <c r="BH7" s="114"/>
-      <c r="BI7" s="114"/>
-      <c r="BJ7" s="117"/>
+      <c r="BE7" s="119"/>
+      <c r="BF7" s="119"/>
+      <c r="BG7" s="119"/>
+      <c r="BH7" s="119"/>
+      <c r="BI7" s="119"/>
+      <c r="BJ7" s="122"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -2972,7 +2984,7 @@
       </c>
       <c r="D9" s="41">
         <f>SUM(D10:D13)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="30"/>
@@ -3287,7 +3299,7 @@
       </c>
       <c r="D13" s="80">
         <f t="shared" ref="D13" si="0">SUM(G13:BJ13)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="49">
         <v>1</v>
@@ -3341,7 +3353,9 @@
       <c r="AX13" s="59"/>
       <c r="AY13" s="88"/>
       <c r="AZ13" s="88"/>
-      <c r="BA13" s="104"/>
+      <c r="BA13" s="106">
+        <v>2</v>
+      </c>
       <c r="BB13" s="64"/>
       <c r="BC13" s="65"/>
       <c r="BD13" s="58"/>
@@ -3653,7 +3667,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3954,7 +3968,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="49">
         <v>1</v>
@@ -3977,7 +3991,7 @@
       <c r="U22" s="58"/>
       <c r="V22" s="59"/>
       <c r="W22" s="106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X22" s="54"/>
       <c r="Y22" s="55"/>
@@ -4107,7 +4121,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="49">
         <v>1</v>
@@ -4125,7 +4139,7 @@
       <c r="P24" s="88"/>
       <c r="Q24" s="54"/>
       <c r="R24" s="110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S24" s="56"/>
       <c r="T24" s="57"/>
@@ -4183,7 +4197,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="49">
         <v>1</v>
@@ -4201,7 +4215,7 @@
       <c r="P25" s="88"/>
       <c r="Q25" s="54"/>
       <c r="R25" s="55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S25" s="56"/>
       <c r="T25" s="57"/>
@@ -4570,7 +4584,7 @@
       </c>
       <c r="D30" s="80">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E30" s="49">
         <v>3</v>
@@ -4597,9 +4611,7 @@
       <c r="Y30" s="55"/>
       <c r="Z30" s="56"/>
       <c r="AA30" s="57"/>
-      <c r="AB30" s="101">
-        <v>4</v>
-      </c>
+      <c r="AB30" s="101"/>
       <c r="AC30" s="102"/>
       <c r="AD30" s="106">
         <v>3</v>
@@ -4743,7 +4755,7 @@
       <c r="Q32" s="106">
         <v>3</v>
       </c>
-      <c r="R32" s="103"/>
+      <c r="R32" s="55"/>
       <c r="S32" s="56"/>
       <c r="T32" s="57"/>
       <c r="U32" s="68"/>
@@ -5251,19 +5263,23 @@
       <c r="T39" s="57"/>
       <c r="U39" s="52"/>
       <c r="V39" s="53"/>
-      <c r="W39" s="54"/>
-      <c r="X39" s="54"/>
-      <c r="Y39" s="55"/>
+      <c r="W39" s="106">
+        <v>2</v>
+      </c>
+      <c r="X39" s="115"/>
+      <c r="Y39" s="116"/>
       <c r="Z39" s="56"/>
       <c r="AA39" s="57"/>
-      <c r="AB39" s="96"/>
-      <c r="AC39" s="123">
-        <v>7</v>
+      <c r="AB39" s="117">
+        <v>3</v>
+      </c>
+      <c r="AC39" s="114">
+        <v>3</v>
       </c>
       <c r="AD39" s="106">
-        <v>5</v>
-      </c>
-      <c r="AE39" s="122"/>
+        <v>4</v>
+      </c>
+      <c r="AE39" s="113"/>
       <c r="AF39" s="89"/>
       <c r="AG39" s="56"/>
       <c r="AH39" s="57"/>
@@ -5378,7 +5394,7 @@
       </c>
       <c r="D41" s="41">
         <f>SUM(D42:D44)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="30"/>
@@ -5451,7 +5467,7 @@
       </c>
       <c r="D42" s="80">
         <f t="shared" ref="D42:D44" si="3">SUM(G42:BJ42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="49"/>
       <c r="F42" s="50"/>
@@ -5501,7 +5517,9 @@
       <c r="AX42" s="53"/>
       <c r="AY42" s="88"/>
       <c r="AZ42" s="88"/>
-      <c r="BA42" s="103"/>
+      <c r="BA42" s="109">
+        <v>1</v>
+      </c>
       <c r="BB42" s="56"/>
       <c r="BC42" s="57"/>
       <c r="BD42" s="52"/>
@@ -5524,7 +5542,7 @@
       </c>
       <c r="D43" s="80">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -5574,7 +5592,9 @@
       <c r="AX43" s="59"/>
       <c r="AY43" s="88"/>
       <c r="AZ43" s="88"/>
-      <c r="BA43" s="103"/>
+      <c r="BA43" s="109">
+        <v>2</v>
+      </c>
       <c r="BB43" s="56"/>
       <c r="BC43" s="57"/>
       <c r="BD43" s="58"/>
@@ -5665,7 +5685,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5714,7 +5734,6 @@
         <v>6</v>
       </c>
       <c r="R45" s="38">
-        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S45" s="38">
@@ -5755,15 +5774,15 @@
       </c>
       <c r="AB45" s="38">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC45" s="38">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AD45" s="38">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE45" s="38">
         <f t="shared" si="4"/>
@@ -5855,7 +5874,7 @@
       </c>
       <c r="BA45" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB45" s="38">
         <f t="shared" si="5"/>
@@ -5925,7 +5944,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -5940,10 +5959,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="121"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="76" t="s">
         <v>13</v>
       </c>
@@ -5952,28 +5971,28 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="str">
+      <c r="A3" s="123" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="119"/>
+      <c r="B3" s="124"/>
       <c r="C3" s="77">
         <f>Zeitplanung!C9</f>
         <v>7</v>
       </c>
       <c r="D3" s="77">
         <f>Zeitplanung!D9</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" s="79"/>
       <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="str">
+      <c r="A4" s="123" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="119"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="77">
         <f>Zeitplanung!C14</f>
         <v>1</v>
@@ -5986,28 +6005,28 @@
       <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="str">
+      <c r="A5" s="123" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="119"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="77">
         <f>Zeitplanung!C18</f>
         <v>49</v>
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="str">
+      <c r="A6" s="123" t="str">
         <f>Zeitplanung!B34</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="119"/>
+      <c r="B6" s="124"/>
       <c r="C6" s="77">
         <f>Zeitplanung!C34</f>
         <v>0</v>
@@ -6019,11 +6038,11 @@
       <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="str">
+      <c r="A7" s="123" t="str">
         <f>Zeitplanung!B38</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="119"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="77">
         <f>Zeitplanung!C38</f>
         <v>10</v>
@@ -6035,18 +6054,18 @@
       <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="118" t="str">
+      <c r="A8" s="123" t="str">
         <f>Zeitplanung!B41</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="119"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="77">
         <f>Zeitplanung!C41</f>
         <v>4</v>
       </c>
       <c r="D8" s="77">
         <f>Zeitplanung!D41</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="78"/>
     </row>
